--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -451,603 +451,813 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1936</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>008972</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1108,15 +1328,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.91</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9735</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>39.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.73</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0258</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.75</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>006530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>中欧匠心两年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>003243</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>003244</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>003245</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>56.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>92.44</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>7.17</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>003243</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>003244</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003245</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4076</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8830</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3176</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3172</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2816,4 +2817,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2993</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3568</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3595,4 +3596,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.49</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.96</v>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8535</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.83</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6280</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3683,13 +3770,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3614</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3039</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2678</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4269,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4280,17 +4281,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4300,14 +4321,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.43</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4316,14 +4359,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.49</v>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8443</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4332,14 +4397,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.96</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4348,14 +4435,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.83</v>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4364,13 +4473,1079 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4356</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.880000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7014</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009076</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信圆兴混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>75.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1936</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>37.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6894</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.49</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001878</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.6031</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.96</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009880</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信成长动力一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.61</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6689</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.83</v>
       </c>
     </row>
     <row r="7">
@@ -697,568 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007368</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5397</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3696</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2403</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2389</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008891</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安信价值成长混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1758</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1481</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1338</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007369</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>浙商沪港深精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008892</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安信价值成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.17</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0316</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.92</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1333,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>34.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.9735</t>
+          <t>2.1082</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1361,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>010041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>嘉实港股优势混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>50.81</t>
+          <t>49.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9003</t>
+          <t>1.8443</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1409,26 +725,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39.94</t>
+          <t>23.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.73</t>
+          <t>93.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.4738</t>
+          <t>0.8944</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1447,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>55.45</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.0258</t>
+          <t>0.8108</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1475,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>011856</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8215</t>
+          <t>0.6722</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1513,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>009715</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>11.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5214</t>
+          <t>0.5126</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1551,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007368</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5011</t>
+          <t>0.4356</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1599,26 +915,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2954</t>
+          <t>0.2881</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1627,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>9.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.2610</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1665,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006530</t>
+          <t>010042</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合C</t>
+          <t>嘉实港股优势混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.06</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1964</t>
+          <t>0.2133</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1703,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1444</t>
+          <t>0.1614</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1741,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003243</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1266</t>
+          <t>0.1175</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1779,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003244</t>
+          <t>014746</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+          <t>贝莱德港股通远景视野混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>53.79</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1266</t>
+          <t>0.1141</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1817,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003245</t>
+          <t>008892</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+          <t>安信价值成长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>83.31</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1266</t>
+          <t>0.0631</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1855,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>95.94</t>
+          <t>86.89</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.32</t>
+          <t>6.28</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0992</t>
+          <t>0.0521</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1893,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>014747</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>贝莱德港股通远景视野混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>56.74</t>
+          <t>53.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0972</t>
+          <t>0.0504</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1931,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>85.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0699</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1969,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008892</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>安信价值成长混合C</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>91.46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.17</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0574</t>
+          <t>0.0439</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2007,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007369</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商沪港深精选混合C</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>86.12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0245</t>
+          <t>0.0410</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2045,36 +1361,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>012924</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2083,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>012925</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>84.71</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0402</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2121,36 +1437,302 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501067</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>160922</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>0.10</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501068</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商富时中国A-H50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +1767,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2215,36 +1797,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.03</t>
+          <t>31.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>92.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.5822</t>
+          <t>1.2319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2253,36 +1835,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>38.46</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4076</t>
+          <t>0.8535</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2301,26 +1883,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>47.86</t>
+          <t>17.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.88</t>
+          <t>84.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1056</t>
+          <t>0.6280</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2329,36 +1911,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>011856</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.32</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8830</t>
+          <t>0.4369</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2367,36 +1949,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.85</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4608</t>
+          <t>0.3614</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2405,17 +1987,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2425,16 +2007,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4551</t>
+          <t>0.3039</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2443,36 +2025,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.99</t>
+          <t>93.32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3176</t>
+          <t>0.2678</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2481,36 +2063,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011856</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3172</t>
+          <t>0.1282</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2519,36 +2101,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>53.78</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1902</t>
+          <t>0.0998</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2557,36 +2139,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>59.44</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1047</t>
+          <t>0.0472</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -2605,26 +2187,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.99</t>
+          <t>91.54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0598</t>
+          <t>0.0349</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2633,36 +2215,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>011857</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0238</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2671,32 +2253,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011857</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>71.97</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -2719,22 +2301,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -2762,17 +2344,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>92.64</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2795,22 +2377,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>91.78</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3627,7 +3209,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3657,36 +3239,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001878</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实沪港深精选股票</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.03</t>
+          <t>89.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2319</t>
+          <t>5.5822</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3695,36 +3277,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008891</t>
+          <t>001878</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>安信价值成长混合A</t>
+          <t>嘉实沪港深精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>38.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8535</t>
+          <t>1.4076</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3743,26 +3325,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.64</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>84.47</t>
+          <t>89.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6280</t>
+          <t>1.1056</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3771,36 +3353,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011856</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>11.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>81.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4369</t>
+          <t>0.8830</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3809,36 +3391,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3614</t>
+          <t>0.4608</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3847,17 +3429,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -3867,16 +3449,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3039</t>
+          <t>0.4551</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -3885,36 +3467,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>008891</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>安信价值成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.32</t>
+          <t>86.99</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2678</t>
+          <t>0.3176</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3923,36 +3505,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>011856</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>71.97</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1282</t>
+          <t>0.3172</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3961,36 +3543,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>53.78</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0998</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -3999,36 +3581,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>59.44</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0472</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4047,26 +3629,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>86.99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0349</t>
+          <t>0.0598</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -4075,36 +3657,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011857</t>
+          <t>241001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+          <t>华宝海外中国混合(QDII)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0238</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -4113,32 +3695,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>011857</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>71.97</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -4161,22 +3743,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0063</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -4204,17 +3786,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -4237,22 +3819,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>93.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -4270,7 +3852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4291,7 +3873,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4331,26 +3913,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>34.56</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1082</t>
+          <t>5.9735</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4359,36 +3941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010041</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合A</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>49.98</t>
+          <t>50.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8443</t>
+          <t>1.9003</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4407,26 +3989,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.17</t>
+          <t>39.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>91.73</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8944</t>
+          <t>1.4738</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4445,26 +4027,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>74.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8108</t>
+          <t>1.0258</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4473,36 +4055,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011856</t>
+          <t>009880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+          <t>安信成长动力一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>91.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6722</t>
+          <t>0.8215</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4511,36 +4093,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009715</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.81</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.41</t>
+          <t>90.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5126</t>
+          <t>0.5214</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -4549,36 +4131,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>007368</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>浙商沪港深精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>13.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4356</t>
+          <t>0.5011</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -4597,26 +4179,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2881</t>
+          <t>0.2954</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -4625,36 +4207,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009880</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信成长动力一年持有期混合</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.49</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2610</t>
+          <t>0.2376</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4663,36 +4245,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010042</t>
+          <t>006530</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>嘉实港股优势混合C</t>
+          <t>中欧匠心两年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>87.06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2133</t>
+          <t>0.1964</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -4701,36 +4283,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1614</t>
+          <t>0.1444</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -4739,36 +4321,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>003243</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1175</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -4777,36 +4359,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>014746</t>
+          <t>003244</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合A</t>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>53.79</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1141</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -4815,36 +4397,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008892</t>
+          <t>003245</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>安信价值成长混合C</t>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0631</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -4853,36 +4435,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>241001</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华宝海外中国混合(QDII)</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>86.89</t>
+          <t>95.94</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0521</t>
+          <t>0.0992</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -4891,36 +4473,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>014747</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合C</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>53.79</t>
+          <t>56.74</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0504</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4929,36 +4511,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>85.00</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0699</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -4967,36 +4549,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>008892</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>安信价值成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>7.17</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0439</t>
+          <t>0.0574</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -5005,36 +4587,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>007369</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>浙商沪港深精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0410</t>
+          <t>0.0245</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -5043,36 +4625,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>012924</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -5081,36 +4663,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012925</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>84.71</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0402</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -5119,302 +4701,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011857</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>84.37</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>85.00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>501067</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.39</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.78</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501068</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商富时中国A-H50指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -5428,7 +4744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5439,17 +4755,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5459,14 +4795,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.880000000000001</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7014</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5475,14 +4833,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.43</v>
+          <t>009076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信圆兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1936</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5491,14 +4871,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.49</v>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5507,14 +4909,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.96</v>
+          <t>001878</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6031</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5523,14 +4947,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.83</v>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6689</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -5539,14 +4985,568 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.92</v>
+          <t>007368</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5397</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007369</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>8.880000000000001</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>4.43</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>7.49</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>10.96</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>13.83</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.92</v>
       </c>
     </row>
@@ -583,6 +600,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>52.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1740,7 +2801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2404,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3182,7 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3846,7 +4907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4738,7 +5799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02899-紫金矿业.xlsx
+++ b/数据整理/stocks/港股/02899-紫金矿业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>5.97</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>8.880000000000001</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>4.43</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>7.49</v>
+        <v>4.43</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>10.96</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>13.83</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.83</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.92</v>
       </c>
     </row>
@@ -600,6 +617,1430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1326</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4623</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014404</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3474</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>016049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>70.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011583</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012252</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信宏盈18个月持有混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014405</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧多元价值三年持有混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014621</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003243</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合人民币份额（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003244</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003245</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根中国世纪灵活配置混合美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011584</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成港股精选混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014622</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发恒生中型股指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1643,7 +3084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2801,7 +4242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3465,7 +4906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4243,7 +5684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4907,7 +6348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5799,7 +7240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
